--- a/rmnd_lca/data/additional_inventories/lci-synfuel.xlsx
+++ b/rmnd_lca/data/additional_inventories/lci-synfuel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romai\Documents\GitHub\rmnd-lca\rmnd_lca\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC68C53-A906-43A7-90FC-89324A152B7E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC170A8-6F97-4111-9D25-6AA9C37DBA2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EBDCF91D-2FCB-4225-88C3-AABB560BADCF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1335" uniqueCount="69">
   <si>
     <t>Activity</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>market for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>RU</t>
   </si>
 </sst>
 </file>
@@ -623,10 +626,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D37E67-C948-4EDB-B8D1-7B0D7B00A1B4}">
-  <dimension ref="A1:I367"/>
+  <dimension ref="A1:I398"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,7 +694,7 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -744,7 +747,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -770,7 +773,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -856,7 +859,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C17" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -916,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
@@ -976,7 +979,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
         <v>8</v>
@@ -996,7 +999,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
         <v>31</v>
@@ -1034,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
         <v>8</v>
@@ -1108,7 +1111,7 @@
         <v>9</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1161,7 +1164,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D43" t="s">
         <v>8</v>
@@ -1187,7 +1190,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C44" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -1267,13 +1270,13 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B48" s="3">
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C48" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D48" t="s">
         <v>31</v>
@@ -1333,7 +1336,7 @@
         <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1393,7 +1396,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C59" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
         <v>8</v>
@@ -1407,13 +1410,13 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B60">
         <v>0.36599999999999999</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
         <v>31</v>
@@ -1451,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
         <v>8</v>
@@ -1525,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="B70" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
@@ -1533,7 +1536,7 @@
         <v>11</v>
       </c>
       <c r="B71" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -1578,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D74" t="s">
         <v>8</v>
@@ -1604,7 +1607,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -1690,7 +1693,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D79" t="s">
         <v>31</v>
@@ -1750,7 +1753,7 @@
         <v>9</v>
       </c>
       <c r="B86" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -1810,7 +1813,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D90" t="s">
         <v>8</v>
@@ -1830,7 +1833,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C91" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
@@ -1868,7 +1871,7 @@
         <v>1</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
         <v>8</v>
@@ -1942,7 +1945,7 @@
         <v>9</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.35">
@@ -1950,7 +1953,7 @@
         <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -1995,7 +1998,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D105" t="s">
         <v>8</v>
@@ -2021,7 +2024,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C106" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D106" t="s">
         <v>8</v>
@@ -2107,7 +2110,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D110" t="s">
         <v>31</v>
@@ -2167,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2227,7 +2230,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C121" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D121" t="s">
         <v>8</v>
@@ -2247,7 +2250,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -2285,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="C124" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D124" t="s">
         <v>8</v>
@@ -2359,7 +2362,7 @@
         <v>9</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.35">
@@ -2367,7 +2370,7 @@
         <v>11</v>
       </c>
       <c r="B133" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -2412,7 +2415,7 @@
         <v>1</v>
       </c>
       <c r="C136" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D136" t="s">
         <v>8</v>
@@ -2438,7 +2441,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D137" t="s">
         <v>8</v>
@@ -2524,7 +2527,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C141" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D141" t="s">
         <v>31</v>
@@ -2584,7 +2587,7 @@
         <v>9</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -2644,7 +2647,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D152" t="s">
         <v>8</v>
@@ -2664,7 +2667,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D153" t="s">
         <v>31</v>
@@ -2702,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D155" t="s">
         <v>8</v>
@@ -2776,7 +2779,7 @@
         <v>9</v>
       </c>
       <c r="B163" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.35">
@@ -2784,7 +2787,7 @@
         <v>11</v>
       </c>
       <c r="B164" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -2829,7 +2832,7 @@
         <v>1</v>
       </c>
       <c r="C167" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D167" t="s">
         <v>8</v>
@@ -2855,7 +2858,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C168" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D168" t="s">
         <v>8</v>
@@ -2941,7 +2944,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C172" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D172" t="s">
         <v>31</v>
@@ -3001,7 +3004,7 @@
         <v>9</v>
       </c>
       <c r="B179" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -3061,7 +3064,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C183" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D183" t="s">
         <v>8</v>
@@ -3081,7 +3084,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C184" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D184" t="s">
         <v>31</v>
@@ -3119,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="C186" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D186" t="s">
         <v>8</v>
@@ -3193,7 +3196,7 @@
         <v>9</v>
       </c>
       <c r="B194" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.35">
@@ -3201,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="B195" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -3246,7 +3249,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D198" t="s">
         <v>8</v>
@@ -3272,7 +3275,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C199" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D199" t="s">
         <v>8</v>
@@ -3358,7 +3361,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C203" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D203" t="s">
         <v>31</v>
@@ -3418,7 +3421,7 @@
         <v>9</v>
       </c>
       <c r="B210" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -3478,7 +3481,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C214" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D214" t="s">
         <v>8</v>
@@ -3498,7 +3501,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C215" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D215" t="s">
         <v>31</v>
@@ -3536,7 +3539,7 @@
         <v>1</v>
       </c>
       <c r="C217" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="D217" t="s">
         <v>8</v>
@@ -3610,7 +3613,7 @@
         <v>9</v>
       </c>
       <c r="B225" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.35">
@@ -3618,7 +3621,7 @@
         <v>11</v>
       </c>
       <c r="B226" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -3663,7 +3666,7 @@
         <v>1</v>
       </c>
       <c r="C229" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D229" t="s">
         <v>8</v>
@@ -3689,7 +3692,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C230" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D230" t="s">
         <v>8</v>
@@ -3775,7 +3778,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C234" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D234" t="s">
         <v>31</v>
@@ -3835,7 +3838,7 @@
         <v>9</v>
       </c>
       <c r="B241" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -3895,7 +3898,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C245" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D245" t="s">
         <v>8</v>
@@ -3915,7 +3918,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C246" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D246" t="s">
         <v>31</v>
@@ -3953,7 +3956,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D248" t="s">
         <v>8</v>
@@ -4027,7 +4030,7 @@
         <v>9</v>
       </c>
       <c r="B256" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.35">
@@ -4035,7 +4038,7 @@
         <v>11</v>
       </c>
       <c r="B257" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="258" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -4080,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="C260" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D260" t="s">
         <v>8</v>
@@ -4106,7 +4109,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C261" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D261" t="s">
         <v>8</v>
@@ -4192,7 +4195,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C265" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D265" t="s">
         <v>31</v>
@@ -4252,7 +4255,7 @@
         <v>9</v>
       </c>
       <c r="B272" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="273" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -4312,7 +4315,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C276" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D276" t="s">
         <v>8</v>
@@ -4332,7 +4335,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C277" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D277" t="s">
         <v>31</v>
@@ -4370,7 +4373,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D279" t="s">
         <v>8</v>
@@ -4444,7 +4447,7 @@
         <v>9</v>
       </c>
       <c r="B287" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
@@ -4452,7 +4455,7 @@
         <v>11</v>
       </c>
       <c r="B288" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -4497,7 +4500,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D291" t="s">
         <v>8</v>
@@ -4523,7 +4526,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C292" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D292" t="s">
         <v>8</v>
@@ -4609,7 +4612,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C296" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D296" t="s">
         <v>31</v>
@@ -4669,7 +4672,7 @@
         <v>9</v>
       </c>
       <c r="B303" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -4729,7 +4732,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C307" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D307" t="s">
         <v>8</v>
@@ -4749,7 +4752,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C308" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D308" t="s">
         <v>31</v>
@@ -4787,7 +4790,7 @@
         <v>1</v>
       </c>
       <c r="C310" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D310" t="s">
         <v>8</v>
@@ -4861,7 +4864,7 @@
         <v>9</v>
       </c>
       <c r="B318" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.35">
@@ -4869,7 +4872,7 @@
         <v>11</v>
       </c>
       <c r="B319" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="320" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
@@ -4914,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="C322" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D322" t="s">
         <v>8</v>
@@ -4940,7 +4943,7 @@
         <v>2.0071266666666667</v>
       </c>
       <c r="C323" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D323" t="s">
         <v>8</v>
@@ -5026,7 +5029,7 @@
         <v>8.7242061855670114E-2</v>
       </c>
       <c r="C327" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D327" t="s">
         <v>31</v>
@@ -5086,7 +5089,7 @@
         <v>9</v>
       </c>
       <c r="B334" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="335" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
@@ -5117,7 +5120,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A337" s="4" t="s">
         <v>34</v>
       </c>
@@ -5137,7 +5140,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="338" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A338" s="4" t="s">
         <v>35</v>
       </c>
@@ -5146,7 +5149,7 @@
         <v>5.1389999999999991E-2</v>
       </c>
       <c r="C338" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D338" t="s">
         <v>8</v>
@@ -5158,7 +5161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>30</v>
       </c>
@@ -5166,7 +5169,7 @@
         <v>0.36599999999999999</v>
       </c>
       <c r="C339" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D339" t="s">
         <v>31</v>
@@ -5178,7 +5181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>26</v>
       </c>
@@ -5196,7 +5199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>19</v>
       </c>
@@ -5204,7 +5207,7 @@
         <v>1</v>
       </c>
       <c r="C341" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="D341" t="s">
         <v>8</v>
@@ -5216,7 +5219,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>36</v>
       </c>
@@ -5233,15 +5236,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A344" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>2</v>
       </c>
@@ -5249,15 +5252,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>3</v>
       </c>
       <c r="B346" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -5265,263 +5268,680 @@
         <v>6</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>7</v>
       </c>
       <c r="B348" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>9</v>
       </c>
       <c r="B349" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A350" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A350" t="s">
+        <v>11</v>
+      </c>
+      <c r="B350" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A351" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A351" t="s">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A352" t="s">
         <v>13</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B352" t="s">
         <v>14</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C352" t="s">
         <v>9</v>
       </c>
-      <c r="D351" t="s">
-        <v>7</v>
-      </c>
-      <c r="E351" t="s">
+      <c r="D352" t="s">
+        <v>7</v>
+      </c>
+      <c r="E352" t="s">
         <v>15</v>
       </c>
-      <c r="F351" t="s">
+      <c r="F352" t="s">
         <v>5</v>
       </c>
-      <c r="G351" t="s">
+      <c r="G352" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>38</v>
-      </c>
-      <c r="B352">
-        <v>300</v>
-      </c>
-      <c r="C352" t="s">
-        <v>37</v>
-      </c>
-      <c r="D352" t="s">
-        <v>8</v>
-      </c>
-      <c r="F352" t="s">
-        <v>20</v>
-      </c>
-      <c r="G352" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H352" t="s">
+        <v>16</v>
+      </c>
+      <c r="I352" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B353">
         <v>1</v>
       </c>
       <c r="C353" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D353" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F353" t="s">
         <v>17</v>
       </c>
       <c r="G353" t="s">
+        <v>4</v>
+      </c>
+      <c r="H353" t="s">
+        <v>47</v>
+      </c>
+      <c r="I353" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A354" t="s">
+        <v>19</v>
+      </c>
+      <c r="B354">
+        <v>2.0071266666666667</v>
+      </c>
+      <c r="C354" t="s">
+        <v>10</v>
+      </c>
+      <c r="D354" t="s">
+        <v>8</v>
+      </c>
+      <c r="F354" t="s">
+        <v>20</v>
+      </c>
+      <c r="G354" t="s">
+        <v>19</v>
+      </c>
+      <c r="H354" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>21</v>
+      </c>
+      <c r="B355">
+        <v>3.6416023188405786</v>
+      </c>
+      <c r="D355" t="s">
+        <v>22</v>
+      </c>
+      <c r="E355" t="s">
+        <v>23</v>
+      </c>
+      <c r="F355" t="s">
+        <v>24</v>
+      </c>
+      <c r="H355" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A356" t="s">
+        <v>26</v>
+      </c>
+      <c r="B356">
+        <v>1.0754991304347825E-3</v>
+      </c>
+      <c r="D356" t="s">
+        <v>27</v>
+      </c>
+      <c r="E356" t="s">
+        <v>28</v>
+      </c>
+      <c r="F356" t="s">
+        <v>24</v>
+      </c>
+      <c r="H356" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>29</v>
+      </c>
+      <c r="B357" s="3">
+        <v>7.6600058437605098E-11</v>
+      </c>
+      <c r="C357" t="s">
+        <v>10</v>
+      </c>
+      <c r="D357" t="s">
+        <v>7</v>
+      </c>
+      <c r="F357" t="s">
+        <v>20</v>
+      </c>
+      <c r="G357" t="s">
+        <v>29</v>
+      </c>
+      <c r="H357" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>30</v>
+      </c>
+      <c r="B358" s="3">
+        <v>8.7242061855670114E-2</v>
+      </c>
+      <c r="C358" t="s">
+        <v>10</v>
+      </c>
+      <c r="D358" t="s">
+        <v>31</v>
+      </c>
+      <c r="F358" t="s">
+        <v>20</v>
+      </c>
+      <c r="G358" t="s">
+        <v>32</v>
+      </c>
+      <c r="H358" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A360" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>2</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>7</v>
+      </c>
+      <c r="B364" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A366" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A367" t="s">
+        <v>13</v>
+      </c>
+      <c r="B367" t="s">
+        <v>14</v>
+      </c>
+      <c r="C367" t="s">
+        <v>9</v>
+      </c>
+      <c r="D367" t="s">
+        <v>7</v>
+      </c>
+      <c r="E367" t="s">
+        <v>15</v>
+      </c>
+      <c r="F367" t="s">
+        <v>5</v>
+      </c>
+      <c r="G367" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A368" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B368">
+        <v>1.41</v>
+      </c>
+      <c r="C368" t="s">
+        <v>10</v>
+      </c>
+      <c r="D368" t="s">
+        <v>8</v>
+      </c>
+      <c r="F368" t="s">
+        <v>20</v>
+      </c>
+      <c r="G368" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A369" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B369">
+        <f>0.571*0.09</f>
+        <v>5.1389999999999991E-2</v>
+      </c>
+      <c r="C369" t="s">
+        <v>10</v>
+      </c>
+      <c r="D369" t="s">
+        <v>8</v>
+      </c>
+      <c r="F369" t="s">
+        <v>20</v>
+      </c>
+      <c r="G369" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>30</v>
+      </c>
+      <c r="B370">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C370" t="s">
+        <v>10</v>
+      </c>
+      <c r="D370" t="s">
+        <v>31</v>
+      </c>
+      <c r="F370" t="s">
+        <v>20</v>
+      </c>
+      <c r="G370" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A371" t="s">
+        <v>26</v>
+      </c>
+      <c r="B371">
+        <f>60*0.001/106.6</f>
+        <v>5.6285178236397749E-4</v>
+      </c>
+      <c r="D371" t="s">
+        <v>27</v>
+      </c>
+      <c r="E371" t="s">
+        <v>28</v>
+      </c>
+      <c r="F371" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>19</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372" t="s">
+        <v>10</v>
+      </c>
+      <c r="D372" t="s">
+        <v>8</v>
+      </c>
+      <c r="F372" t="s">
+        <v>17</v>
+      </c>
+      <c r="G372" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A373" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A355" s="1" t="s">
+      <c r="B373" s="5">
+        <v>5.7100000000000004E-6</v>
+      </c>
+      <c r="C373" t="s">
+        <v>37</v>
+      </c>
+      <c r="D373" t="s">
+        <v>7</v>
+      </c>
+      <c r="F373" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A375" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B375" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>2</v>
+      </c>
+      <c r="B376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A377" t="s">
+        <v>3</v>
+      </c>
+      <c r="B377" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A379" t="s">
+        <v>7</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A381" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A382" t="s">
+        <v>13</v>
+      </c>
+      <c r="B382" t="s">
+        <v>14</v>
+      </c>
+      <c r="C382" t="s">
+        <v>9</v>
+      </c>
+      <c r="D382" t="s">
+        <v>7</v>
+      </c>
+      <c r="E382" t="s">
+        <v>15</v>
+      </c>
+      <c r="F382" t="s">
+        <v>5</v>
+      </c>
+      <c r="G382" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A383" t="s">
+        <v>38</v>
+      </c>
+      <c r="B383">
+        <v>300</v>
+      </c>
+      <c r="C383" t="s">
+        <v>37</v>
+      </c>
+      <c r="D383" t="s">
+        <v>8</v>
+      </c>
+      <c r="F383" t="s">
+        <v>20</v>
+      </c>
+      <c r="G383" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A384" t="s">
+        <v>36</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384" t="s">
+        <v>37</v>
+      </c>
+      <c r="D384" t="s">
+        <v>7</v>
+      </c>
+      <c r="F384" t="s">
+        <v>17</v>
+      </c>
+      <c r="G384" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A386" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B386" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A356" t="s">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A387" t="s">
         <v>2</v>
       </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A357" t="s">
+      <c r="B387">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A388" t="s">
         <v>3</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B388" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A358" t="s">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A389" t="s">
         <v>5</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B389" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A359" t="s">
-        <v>7</v>
-      </c>
-      <c r="B359" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A360" t="s">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A390" t="s">
+        <v>7</v>
+      </c>
+      <c r="B390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
         <v>9</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B391" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A361" s="1" t="s">
+    <row r="392" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A392" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A362" t="s">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
         <v>13</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B393" t="s">
         <v>14</v>
       </c>
-      <c r="C362" t="s">
+      <c r="C393" t="s">
         <v>9</v>
       </c>
-      <c r="D362" t="s">
-        <v>7</v>
-      </c>
-      <c r="E362" t="s">
+      <c r="D393" t="s">
+        <v>7</v>
+      </c>
+      <c r="E393" t="s">
         <v>15</v>
       </c>
-      <c r="F362" t="s">
+      <c r="F393" t="s">
         <v>5</v>
       </c>
-      <c r="G362" t="s">
+      <c r="G393" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A363" t="s">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
         <v>38</v>
       </c>
-      <c r="B363">
+      <c r="B394">
         <v>1650000</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C394" t="s">
         <v>37</v>
       </c>
-      <c r="D363" t="s">
-        <v>8</v>
-      </c>
-      <c r="F363" t="s">
+      <c r="D394" t="s">
+        <v>8</v>
+      </c>
+      <c r="F394" t="s">
         <v>40</v>
       </c>
-      <c r="G363" t="s">
+      <c r="G394" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A364" t="s">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
         <v>41</v>
       </c>
-      <c r="B364">
+      <c r="B395">
         <v>476900</v>
       </c>
-      <c r="C364" t="s">
+      <c r="C395" t="s">
         <v>37</v>
       </c>
-      <c r="D364" t="s">
-        <v>8</v>
-      </c>
-      <c r="F364" t="s">
+      <c r="D395" t="s">
+        <v>8</v>
+      </c>
+      <c r="F395" t="s">
         <v>40</v>
       </c>
-      <c r="G364" t="s">
+      <c r="G395" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A365" t="s">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
         <v>43</v>
       </c>
-      <c r="B365">
+      <c r="B396">
         <v>26300</v>
       </c>
-      <c r="C365" t="s">
+      <c r="C396" t="s">
         <v>37</v>
       </c>
-      <c r="D365" t="s">
-        <v>8</v>
-      </c>
-      <c r="F365" t="s">
+      <c r="D396" t="s">
+        <v>8</v>
+      </c>
+      <c r="F396" t="s">
         <v>40</v>
       </c>
-      <c r="G365" t="s">
+      <c r="G396" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A366" t="s">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
         <v>45</v>
       </c>
-      <c r="B366">
+      <c r="B397">
         <v>13</v>
       </c>
-      <c r="C366" t="s">
+      <c r="C397" t="s">
         <v>37</v>
       </c>
-      <c r="D366" t="s">
-        <v>7</v>
-      </c>
-      <c r="F366" t="s">
+      <c r="D397" t="s">
+        <v>7</v>
+      </c>
+      <c r="F397" t="s">
         <v>40</v>
       </c>
-      <c r="G366" t="s">
+      <c r="G397" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A367" t="s">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
         <v>29</v>
       </c>
-      <c r="B367">
-        <v>1</v>
-      </c>
-      <c r="C367" t="s">
+      <c r="B398">
+        <v>1</v>
+      </c>
+      <c r="C398" t="s">
         <v>10</v>
       </c>
-      <c r="D367" t="s">
-        <v>7</v>
-      </c>
-      <c r="F367" t="s">
+      <c r="D398" t="s">
+        <v>7</v>
+      </c>
+      <c r="F398" t="s">
         <v>17</v>
       </c>
-      <c r="G367" t="s">
+      <c r="G398" t="s">
         <v>29</v>
       </c>
     </row>
